--- a/analysis/Apportionment & Redistricting Effects (2020–2022).xlsx
+++ b/analysis/Apportionment & Redistricting Effects (2020–2022).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41114509-9479-664C-9A61-CFD8CA4840A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB753CA-0905-EE47-B264-E39D6B6622E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="1060" windowWidth="27260" windowHeight="16940" xr2:uid="{681EA93E-AE60-7D46-B720-CAB4E15116B4}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
   <si>
     <t>AL</t>
   </si>
@@ -459,12 +459,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,12 +495,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -597,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -625,8 +618,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,16 +625,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,6 +640,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,10 +982,10 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection pane="bottomRight" activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,8 +996,8 @@
     <col min="4" max="4" width="5.6640625" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="5.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="38" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="31" customWidth="1"/>
     <col min="11" max="12" width="5.83203125" style="6" customWidth="1"/>
     <col min="13" max="13" width="5.83203125" style="5" customWidth="1"/>
     <col min="14" max="15" width="5.83203125" style="6" customWidth="1"/>
@@ -1022,7 +1010,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>113</v>
       </c>
       <c r="F1" s="11"/>
@@ -1030,13 +1018,13 @@
         <v>109</v>
       </c>
       <c r="H1" s="14"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="35" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="18" t="s">
         <v>115</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="32"/>
+      <c r="M1" s="26"/>
       <c r="N1" s="18" t="s">
         <v>108</v>
       </c>
@@ -1055,37 +1043,37 @@
       <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="25">
         <v>2010</v>
       </c>
       <c r="G2" s="7">
         <v>2020</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="34" t="s">
         <v>118</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="29" t="s">
         <v>116</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -1121,13 +1109,13 @@
         <f>G3-F3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="36">
         <v>0.4002</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="31">
         <v>1.01</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="6">
         <f>ROUND(J3,0)</f>
         <v>1</v>
       </c>
@@ -1135,7 +1123,7 @@
         <f>K3-E3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="27">
         <v>1.01</v>
       </c>
       <c r="N3" s="6">
@@ -1143,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="15">
-        <f>N3-K3</f>
+        <f t="shared" ref="O3:O34" si="0">N3-K3</f>
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="s">
@@ -1154,7 +1142,7 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="2">
@@ -1173,32 +1161,32 @@
         <v>1</v>
       </c>
       <c r="H4" s="15">
-        <f t="shared" ref="H4:H52" si="0">G4-F4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="29">
+        <f t="shared" ref="H4:H52" si="1">G4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
         <v>0.44169999999999998</v>
       </c>
-      <c r="J4" s="38">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24">
-        <f t="shared" ref="K4:N52" si="1">ROUND(J4,0)</f>
+      <c r="J4" s="31">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ref="K4:N52" si="2">ROUND(J4,0)</f>
         <v>0</v>
       </c>
       <c r="L4" s="15">
-        <f t="shared" ref="L4:L52" si="2">K4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="33">
+        <f t="shared" ref="L4:L52" si="3">K4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O4" s="15">
-        <f>N4-K4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="s">
@@ -1228,32 +1216,32 @@
         <v>9</v>
       </c>
       <c r="H5" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="J5" s="31">
+        <v>4.46</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M5" s="27">
+        <v>3.58</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="29">
-        <v>0.48870000000000002</v>
-      </c>
-      <c r="J5" s="38">
-        <v>4.46</v>
-      </c>
-      <c r="K5" s="24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L5" s="15">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M5" s="33">
-        <v>3.58</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O5" s="15">
-        <f>N5-K5</f>
         <v>0</v>
       </c>
       <c r="Q5" s="4" t="s">
@@ -1283,32 +1271,32 @@
         <v>4</v>
       </c>
       <c r="H6" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="J6" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="29">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="J6" s="38">
-        <v>0.06</v>
-      </c>
-      <c r="K6" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="33">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="15">
-        <f>N6-K6</f>
         <v>0</v>
       </c>
       <c r="Q6" s="4" t="s">
@@ -1338,33 +1326,36 @@
         <v>52</v>
       </c>
       <c r="H7" s="15">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="J7" s="31">
+        <v>44.03</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="27">
+        <v>43.66</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="O7" s="15">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="I7" s="29">
-        <v>0.64239999999999997</v>
-      </c>
-      <c r="J7" s="38">
-        <v>44.03</v>
-      </c>
-      <c r="K7" s="24">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="L7" s="15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M7" s="33">
-        <v>43.66</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="O7" s="15">
-        <f>N7-K7</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>105</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>110</v>
@@ -1393,32 +1384,32 @@
         <v>8</v>
       </c>
       <c r="H8" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="J8" s="31">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="27">
+        <v>4.53</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="29">
-        <v>0.54479999999999995</v>
-      </c>
-      <c r="J8" s="38">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="K8" s="24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L8" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="33">
-        <v>4.53</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O8" s="15">
-        <f>N8-K8</f>
         <v>1</v>
       </c>
       <c r="Q8" s="4" t="s">
@@ -1448,32 +1439,32 @@
         <v>5</v>
       </c>
       <c r="H9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="J9" s="31">
+        <v>4.62</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="27">
+        <v>4.63</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="29">
-        <v>0.58079999999999998</v>
-      </c>
-      <c r="J9" s="38">
-        <v>4.62</v>
-      </c>
-      <c r="K9" s="24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L9" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>4.63</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O9" s="15">
-        <f>N9-K9</f>
         <v>0</v>
       </c>
       <c r="Q9" s="4" t="s">
@@ -1484,7 +1475,7 @@
       <c r="A10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="2">
@@ -1503,32 +1494,32 @@
         <v>1</v>
       </c>
       <c r="H10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="J10" s="31">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="27">
+        <v>0.99</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="29">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="J10" s="38">
-        <v>1</v>
-      </c>
-      <c r="K10" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
-        <v>0.99</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="15">
-        <f>N10-K10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="4" t="s">
@@ -1558,32 +1549,32 @@
         <v>28</v>
       </c>
       <c r="H11" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="J11" s="31">
+        <v>12.25</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="27">
+        <v>10.53</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O11" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="29">
-        <v>0.48370000000000002</v>
-      </c>
-      <c r="J11" s="38">
-        <v>12.25</v>
-      </c>
-      <c r="K11" s="24">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="33">
-        <v>10.53</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="O11" s="15">
-        <f>N11-K11</f>
         <v>-1</v>
       </c>
       <c r="Q11" s="4" t="s">
@@ -1613,32 +1604,32 @@
         <v>14</v>
       </c>
       <c r="H12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0.4803</v>
+      </c>
+      <c r="J12" s="31">
+        <v>4.87</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M12" s="27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O12" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="29">
-        <v>0.4803</v>
-      </c>
-      <c r="J12" s="38">
-        <v>4.87</v>
-      </c>
-      <c r="K12" s="24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L12" s="15">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M12" s="33">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O12" s="15">
-        <f>N12-K12</f>
         <v>0</v>
       </c>
       <c r="P12" t="s">
@@ -1671,33 +1662,36 @@
         <v>2</v>
       </c>
       <c r="H13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="J13" s="31">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="27">
+        <v>2</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="29">
-        <v>0.68269999999999997</v>
-      </c>
-      <c r="J13" s="38">
-        <v>2</v>
-      </c>
-      <c r="K13" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="33">
-        <v>2</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O13" s="15">
-        <f>N13-K13</f>
-        <v>0</v>
+      <c r="P13" t="s">
+        <v>105</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>111</v>
@@ -1726,33 +1720,36 @@
         <v>2</v>
       </c>
       <c r="H14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0.3387</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="27">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="29">
-        <v>0.3387</v>
-      </c>
-      <c r="J14" s="38">
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="33">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="15">
-        <f>N14-K14</f>
-        <v>0</v>
+      <c r="P14" t="s">
+        <v>105</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>111</v>
@@ -1781,32 +1778,32 @@
         <v>17</v>
       </c>
       <c r="H15" s="15">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0.58169999999999999</v>
+      </c>
+      <c r="J15" s="31">
+        <v>11.99</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="27">
+        <v>13.31</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O15" s="15">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="I15" s="29">
-        <v>0.58169999999999999</v>
-      </c>
-      <c r="J15" s="38">
-        <v>11.99</v>
-      </c>
-      <c r="K15" s="24">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L15" s="15">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M15" s="33">
-        <v>13.31</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="O15" s="15">
-        <f>N15-K15</f>
         <v>1</v>
       </c>
       <c r="Q15" s="4" t="s">
@@ -1836,32 +1833,32 @@
         <v>9</v>
       </c>
       <c r="H16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="J16" s="31">
+        <v>2.19</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="27">
+        <v>2</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O16" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="29">
-        <v>0.43469999999999998</v>
-      </c>
-      <c r="J16" s="38">
-        <v>2.19</v>
-      </c>
-      <c r="K16" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L16" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="33">
-        <v>2</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O16" s="15">
-        <f>N16-K16</f>
         <v>0</v>
       </c>
       <c r="Q16" s="4" t="s">
@@ -1891,32 +1888,32 @@
         <v>4</v>
       </c>
       <c r="H17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0.45150000000000001</v>
+      </c>
+      <c r="J17" s="31">
+        <v>0.94</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="27">
+        <v>0.94</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="29">
-        <v>0.4516</v>
-      </c>
-      <c r="J17" s="38">
-        <v>0.94</v>
-      </c>
-      <c r="K17" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="33">
-        <v>0.94</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="15">
-        <f>N17-K17</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4" t="s">
@@ -1946,32 +1943,32 @@
         <v>4</v>
       </c>
       <c r="H18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="36">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="J18" s="31">
+        <v>0.83</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="27">
+        <v>0.53</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="29">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="J18" s="38">
-        <v>0.83</v>
-      </c>
-      <c r="K18" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="33">
-        <v>0.53</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="15">
-        <f>N18-K18</f>
         <v>0</v>
       </c>
       <c r="Q18" s="4" t="s">
@@ -2001,33 +1998,36 @@
         <v>6</v>
       </c>
       <c r="H19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="J19" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="27">
+        <v>1.27</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="29">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="J19" s="38">
-        <v>1.4</v>
-      </c>
-      <c r="K19" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="33">
-        <v>1.27</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="15">
-        <f>N19-K19</f>
-        <v>0</v>
+      <c r="P19" t="s">
+        <v>105</v>
       </c>
       <c r="Q19" s="4" t="s">
         <v>111</v>
@@ -2056,32 +2056,32 @@
         <v>6</v>
       </c>
       <c r="H20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="J20" s="31">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="27">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="29">
-        <v>0.39079999999999998</v>
-      </c>
-      <c r="J20" s="38">
-        <v>1</v>
-      </c>
-      <c r="K20" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="33">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="15">
-        <f>N20-K20</f>
         <v>0</v>
       </c>
       <c r="Q20" s="4" t="s">
@@ -2111,33 +2111,36 @@
         <v>2</v>
       </c>
       <c r="H21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="J21" s="31">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M21" s="27">
+        <v>1.02</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="29">
-        <v>0.50629999999999997</v>
-      </c>
-      <c r="J21" s="38">
-        <v>1</v>
-      </c>
-      <c r="K21" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="15">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M21" s="33">
-        <v>1.02</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="15">
-        <f>N21-K21</f>
-        <v>0</v>
+      <c r="P21" t="s">
+        <v>105</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>111</v>
@@ -2166,32 +2169,32 @@
         <v>8</v>
       </c>
       <c r="H22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="36">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="J22" s="31">
+        <v>6.96</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="27">
+        <v>6.32</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O22" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="29">
-        <v>0.62150000000000005</v>
-      </c>
-      <c r="J22" s="38">
-        <v>6.96</v>
-      </c>
-      <c r="K22" s="24">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L22" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="33">
-        <v>6.32</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O22" s="15">
-        <f>N22-K22</f>
         <v>-1</v>
       </c>
       <c r="Q22" s="4" t="s">
@@ -2221,32 +2224,32 @@
         <v>9</v>
       </c>
       <c r="H23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0.6139</v>
+      </c>
+      <c r="J23" s="31">
+        <v>8.67</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="27">
+        <v>8.64</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O23" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="29">
-        <v>0.6139</v>
-      </c>
-      <c r="J23" s="38">
-        <v>8.67</v>
-      </c>
-      <c r="K23" s="24">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L23" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="33">
-        <v>8.64</v>
-      </c>
-      <c r="N23" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="O23" s="15">
-        <f>N23-K23</f>
         <v>0</v>
       </c>
       <c r="Q23" s="4" t="s">
@@ -2276,32 +2279,32 @@
         <v>13</v>
       </c>
       <c r="H24" s="15">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I24" s="36">
+        <v>0.51870000000000005</v>
+      </c>
+      <c r="J24" s="31">
+        <v>6.41</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M24" s="27">
+        <v>6.77</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O24" s="15">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="I24" s="29">
-        <v>0.51870000000000005</v>
-      </c>
-      <c r="J24" s="38">
-        <v>6.41</v>
-      </c>
-      <c r="K24" s="24">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L24" s="15">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M24" s="33">
-        <v>6.77</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="O24" s="15">
-        <f>N24-K24</f>
         <v>1</v>
       </c>
       <c r="Q24" s="4" t="s">
@@ -2331,32 +2334,32 @@
         <v>8</v>
       </c>
       <c r="H25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="36">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="J25" s="31">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="27">
+        <v>4.3</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="29">
-        <v>0.54479999999999995</v>
-      </c>
-      <c r="J25" s="38">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="K25" s="24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L25" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="33">
-        <v>4.3</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O25" s="15">
-        <f>N25-K25</f>
         <v>0</v>
       </c>
       <c r="Q25" s="4" t="s">
@@ -2386,32 +2389,32 @@
         <v>4</v>
       </c>
       <c r="H26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="36">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="J26" s="31">
+        <v>1.01</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="27">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="29">
-        <v>0.43190000000000001</v>
-      </c>
-      <c r="J26" s="38">
-        <v>1.01</v>
-      </c>
-      <c r="K26" s="24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L26" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="33">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="15">
-        <f>N26-K26</f>
         <v>0</v>
       </c>
       <c r="Q26" s="4" t="s">
@@ -2441,32 +2444,32 @@
         <v>8</v>
       </c>
       <c r="H27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="36">
+        <v>0.4279</v>
+      </c>
+      <c r="J27" s="31">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="27">
+        <v>2.1</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="29">
-        <v>0.4279</v>
-      </c>
-      <c r="J27" s="38">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K27" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L27" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="33">
-        <v>2.1</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O27" s="15">
-        <f>N27-K27</f>
         <v>0</v>
       </c>
       <c r="Q27" s="4" t="s">
@@ -2477,7 +2480,7 @@
       <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C28" s="2">
@@ -2496,33 +2499,36 @@
         <v>2</v>
       </c>
       <c r="H28" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="36">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="J28" s="31">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="27">
+        <v>0.31</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I28" s="29">
-        <v>0.43640000000000001</v>
-      </c>
-      <c r="J28" s="38">
-        <v>0</v>
-      </c>
-      <c r="K28" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="33">
-        <v>0.31</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="15">
-        <f>N28-K28</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>105</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>111</v>
@@ -2551,32 +2557,32 @@
         <v>3</v>
       </c>
       <c r="H29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="36">
+        <v>0.37540000000000001</v>
+      </c>
+      <c r="J29" s="31">
+        <v>0.34</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="27">
+        <v>0.37</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="29">
-        <v>0.37540000000000001</v>
-      </c>
-      <c r="J29" s="38">
-        <v>0.34</v>
-      </c>
-      <c r="K29" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="33">
-        <v>0.37</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="15">
-        <f>N29-K29</f>
         <v>0</v>
       </c>
       <c r="Q29" s="4" t="s">
@@ -2606,32 +2612,32 @@
         <v>4</v>
       </c>
       <c r="H30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="36">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="J30" s="31">
+        <v>2.36</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M30" s="27">
+        <v>2.72</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O30" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="29">
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="J30" s="38">
-        <v>2.36</v>
-      </c>
-      <c r="K30" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L30" s="15">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="M30" s="33">
-        <v>2.72</v>
-      </c>
-      <c r="N30" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="O30" s="15">
-        <f>N30-K30</f>
         <v>1</v>
       </c>
       <c r="Q30" s="4" t="s">
@@ -2661,33 +2667,36 @@
         <v>2</v>
       </c>
       <c r="H31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="36">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="J31" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="M31" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="29">
-        <v>0.46510000000000001</v>
-      </c>
-      <c r="J31" s="38">
-        <v>0.4</v>
-      </c>
-      <c r="K31" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="15">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="M31" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="15">
-        <f>N31-K31</f>
-        <v>0</v>
+      <c r="P31" t="s">
+        <v>105</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>111</v>
@@ -2716,33 +2725,36 @@
         <v>12</v>
       </c>
       <c r="H32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="36">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="J32" s="31">
+        <v>8.49</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="M32" s="27">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O32" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="29">
-        <v>0.57440000000000002</v>
-      </c>
-      <c r="J32" s="38">
-        <v>8.49</v>
-      </c>
-      <c r="K32" s="24">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L32" s="15">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="M32" s="33">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="O32" s="15">
-        <f>N32-K32</f>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>105</v>
       </c>
       <c r="Q32" s="4" t="s">
         <v>111</v>
@@ -2771,32 +2783,32 @@
         <v>3</v>
       </c>
       <c r="H33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="36">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="J33" s="31">
+        <v>2.12</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="27">
+        <v>2.77</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O33" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="29">
-        <v>0.56089999999999995</v>
-      </c>
-      <c r="J33" s="38">
-        <v>2.12</v>
-      </c>
-      <c r="K33" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="33">
-        <v>2.77</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="O33" s="15">
-        <f>N33-K33</f>
         <v>1</v>
       </c>
       <c r="Q33" s="4" t="s">
@@ -2826,32 +2838,32 @@
         <v>26</v>
       </c>
       <c r="H34" s="15">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I34" s="36">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="J34" s="31">
+        <v>21.92</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="M34" s="27">
+        <v>22.05</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O34" s="15">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="I34" s="29">
-        <v>0.64780000000000004</v>
-      </c>
-      <c r="J34" s="38">
-        <v>21.92</v>
-      </c>
-      <c r="K34" s="24">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="L34" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="M34" s="33">
-        <v>22.05</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="O34" s="15">
-        <f>N34-K34</f>
         <v>0</v>
       </c>
       <c r="Q34" s="4" t="s">
@@ -2881,32 +2893,32 @@
         <v>14</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="36">
         <v>0.49430000000000002</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="31">
         <v>5.38</v>
       </c>
-      <c r="K35" s="24">
-        <f t="shared" si="1"/>
+      <c r="K35" s="6">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="27">
         <v>6.75</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O35" s="15">
-        <f>N35-K35</f>
+        <f t="shared" ref="O35:O66" si="4">N35-K35</f>
         <v>2</v>
       </c>
       <c r="Q35" s="4" t="s">
@@ -2917,7 +2929,7 @@
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C36" s="2">
@@ -2936,33 +2948,36 @@
         <v>1</v>
       </c>
       <c r="H36" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="36">
         <v>0.3029</v>
       </c>
-      <c r="J36" s="38">
-        <v>0</v>
-      </c>
-      <c r="K36" s="24">
-        <f t="shared" si="1"/>
+      <c r="J36" s="31">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="27">
         <v>0</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O36" s="15">
-        <f>N36-K36</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>105</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>111</v>
@@ -2991,32 +3006,32 @@
         <v>15</v>
       </c>
       <c r="H37" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I37" s="29">
+      <c r="I37" s="36">
         <v>0.46379999999999999</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37" s="31">
         <v>4.51</v>
       </c>
-      <c r="K37" s="24">
-        <f t="shared" si="1"/>
+      <c r="K37" s="6">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L37" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M37" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="27">
         <v>4.3099999999999996</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O37" s="15">
-        <f>N37-K37</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="Q37" s="4" t="s">
@@ -3046,32 +3061,32 @@
         <v>5</v>
       </c>
       <c r="H38" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="36">
         <v>0.33629999999999999</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38" s="31">
         <v>0.12</v>
       </c>
-      <c r="K38" s="24">
-        <f t="shared" si="1"/>
+      <c r="K38" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L38" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="27">
         <v>0.01</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O38" s="15">
-        <f>N38-K38</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q38" s="4" t="s">
@@ -3101,32 +3116,32 @@
         <v>6</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="36">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="31">
         <v>3.54</v>
       </c>
-      <c r="K39" s="24">
-        <f t="shared" si="1"/>
+      <c r="K39" s="6">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="27">
         <v>4.63</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O39" s="15">
-        <f>N39-K39</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q39" s="4" t="s">
@@ -3156,32 +3171,32 @@
         <v>17</v>
       </c>
       <c r="H40" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I40" s="29">
+      <c r="I40" s="36">
         <v>0.52510000000000001</v>
       </c>
-      <c r="J40" s="38">
+      <c r="J40" s="31">
         <v>9.35</v>
       </c>
-      <c r="K40" s="24">
-        <f t="shared" si="1"/>
+      <c r="K40" s="6">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L40" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="27">
         <v>9.2100000000000009</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O40" s="15">
-        <f>N40-K40</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q40" s="4" t="s">
@@ -3211,33 +3226,36 @@
         <v>2</v>
       </c>
       <c r="H41" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="36">
         <v>0.61890000000000001</v>
       </c>
-      <c r="J41" s="38">
+      <c r="J41" s="31">
         <v>1.98</v>
       </c>
-      <c r="K41" s="24">
-        <f t="shared" si="1"/>
+      <c r="K41" s="6">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L41" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="27">
         <v>1.98</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O41" s="15">
-        <f>N41-K41</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>105</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>111</v>
@@ -3266,32 +3284,32 @@
         <v>7</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="36">
         <v>0.43159999999999998</v>
       </c>
-      <c r="J42" s="38">
+      <c r="J42" s="31">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K42" s="24">
-        <f t="shared" si="1"/>
+      <c r="K42" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L42" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="27">
         <v>1.1000000000000001</v>
       </c>
       <c r="N42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O42" s="15">
-        <f>N42-K42</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q42" s="4" t="s">
@@ -3302,7 +3320,7 @@
       <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C43" s="2">
@@ -3321,33 +3339,36 @@
         <v>1</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="36">
         <v>0.37109999999999999</v>
       </c>
-      <c r="J43" s="38">
-        <v>0</v>
-      </c>
-      <c r="K43" s="24">
-        <f t="shared" si="1"/>
+      <c r="J43" s="31">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L43" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="27">
         <v>0</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O43" s="15">
-        <f>N43-K43</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>105</v>
       </c>
       <c r="Q43" s="4" t="s">
         <v>111</v>
@@ -3376,33 +3397,36 @@
         <v>9</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="36">
         <v>0.3871</v>
       </c>
-      <c r="J44" s="38">
-        <v>2</v>
-      </c>
-      <c r="K44" s="24">
-        <f t="shared" si="1"/>
+      <c r="J44" s="31">
+        <v>2</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="27">
         <v>1.1100000000000001</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O44" s="15">
-        <f>N44-K44</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>105</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>111</v>
@@ -3431,32 +3455,32 @@
         <v>38</v>
       </c>
       <c r="H45" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I45" s="29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I45" s="36">
         <v>0.4622</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45" s="31">
         <v>14.63</v>
       </c>
-      <c r="K45" s="24">
-        <f t="shared" si="1"/>
+      <c r="K45" s="6">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L45" s="15">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M45" s="33">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M45" s="27">
         <v>13.85</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O45" s="15">
-        <f>N45-K45</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
       <c r="Q45" s="4" t="s">
@@ -3486,33 +3510,36 @@
         <v>4</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="36">
         <v>0.32969999999999999</v>
       </c>
-      <c r="J46" s="38">
-        <v>0</v>
-      </c>
-      <c r="K46" s="24">
-        <f t="shared" si="1"/>
+      <c r="J46" s="31">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L46" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="27">
         <v>0</v>
       </c>
       <c r="N46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O46" s="15">
-        <f>N46-K46</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>105</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>111</v>
@@ -3522,7 +3549,7 @@
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="2">
@@ -3541,33 +3568,36 @@
         <v>1</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="36">
         <v>0.61060000000000003</v>
       </c>
-      <c r="J47" s="38">
-        <v>1</v>
-      </c>
-      <c r="K47" s="24">
-        <f t="shared" si="1"/>
+      <c r="J47" s="31">
+        <v>1</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L47" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="27">
         <v>1</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O47" s="15">
-        <f>N47-K47</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>105</v>
       </c>
       <c r="Q47" s="4" t="s">
         <v>111</v>
@@ -3596,33 +3626,36 @@
         <v>11</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="36">
         <v>0.53669999999999995</v>
       </c>
-      <c r="J48" s="38">
+      <c r="J48" s="31">
         <v>6.1</v>
       </c>
-      <c r="K48" s="24">
-        <f t="shared" si="1"/>
+      <c r="K48" s="6">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L48" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M48" s="33">
+      <c r="M48" s="27">
         <v>6.23</v>
       </c>
       <c r="N48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O48" s="15">
-        <f>N48-K48</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>105</v>
       </c>
       <c r="Q48" s="4" t="s">
         <v>111</v>
@@ -3651,32 +3684,32 @@
         <v>10</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="36">
         <v>0.58169999999999999</v>
       </c>
-      <c r="J49" s="38">
+      <c r="J49" s="31">
         <v>6.82</v>
       </c>
-      <c r="K49" s="24">
-        <f t="shared" si="1"/>
+      <c r="K49" s="6">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="L49" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="27">
         <v>6.81</v>
       </c>
       <c r="N49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O49" s="15">
-        <f>N49-K49</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q49" s="4" t="s">
@@ -3706,33 +3739,36 @@
         <v>2</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="36">
         <v>0.31900000000000001</v>
       </c>
-      <c r="J50" s="38">
-        <v>0</v>
-      </c>
-      <c r="K50" s="24">
-        <f t="shared" si="1"/>
+      <c r="J50" s="31">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L50" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="27">
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O50" s="15">
-        <f>N50-K50</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>105</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>111</v>
@@ -3761,32 +3797,32 @@
         <v>8</v>
       </c>
       <c r="H51" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="36">
         <v>0.50680000000000003</v>
       </c>
-      <c r="J51" s="38">
+      <c r="J51" s="31">
         <v>2.71</v>
       </c>
-      <c r="K51" s="24">
-        <f t="shared" si="1"/>
+      <c r="K51" s="6">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L51" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="27">
         <v>3.04</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O51" s="15">
-        <f>N51-K51</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q51" s="4" t="s">
@@ -3797,7 +3833,7 @@
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C52" s="2">
@@ -3816,33 +3852,36 @@
         <v>1</v>
       </c>
       <c r="H52" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="36">
         <v>0.27539999999999998</v>
       </c>
-      <c r="J52" s="38">
-        <v>0</v>
-      </c>
-      <c r="K52" s="24">
-        <f t="shared" si="1"/>
+      <c r="J52" s="31">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L52" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="27">
         <v>0</v>
       </c>
       <c r="N52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O52" s="15">
-        <f>N52-K52</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>105</v>
       </c>
       <c r="Q52" s="4" t="s">
         <v>111</v>
@@ -3852,10 +3891,9 @@
       <c r="E53" s="19"/>
       <c r="F53" s="12"/>
       <c r="H53" s="16"/>
-      <c r="I53" s="29"/>
-      <c r="K53" s="24"/>
+      <c r="I53" s="36"/>
       <c r="L53" s="22"/>
-      <c r="M53" s="33"/>
+      <c r="M53" s="27"/>
       <c r="O53" s="22"/>
     </row>
     <row r="54" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -3865,7 +3903,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="25">
+      <c r="E54" s="23">
         <f>SUM(E3:E52)</f>
         <v>222</v>
       </c>
@@ -3881,8 +3919,8 @@
         <f>SUM(H3:H52)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="30"/>
-      <c r="J54" s="39"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="32"/>
       <c r="K54" s="10">
         <f>SUM(K3:K52)</f>
         <v>220</v>
@@ -3891,7 +3929,7 @@
         <f>SUM(L3:L52)</f>
         <v>-2</v>
       </c>
-      <c r="M54" s="34"/>
+      <c r="M54" s="28"/>
       <c r="N54" s="10">
         <f>SUM(N3:N52)</f>
         <v>224</v>
@@ -3909,13 +3947,13 @@
         <v>4</v>
       </c>
       <c r="F55" s="12"/>
-      <c r="I55" s="29"/>
-      <c r="K55" s="24">
+      <c r="I55" s="36"/>
+      <c r="K55" s="6">
         <f>K54-218</f>
         <v>2</v>
       </c>
       <c r="L55" s="22"/>
-      <c r="M55" s="33"/>
+      <c r="M55" s="27"/>
       <c r="N55" s="6">
         <f>N54-218</f>
         <v>6</v>

--- a/analysis/Apportionment & Redistricting Effects (2020–2022).xlsx
+++ b/analysis/Apportionment & Redistricting Effects (2020–2022).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB753CA-0905-EE47-B264-E39D6B6622E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F3E6DF-0341-9E43-B9FF-4143AF0F510D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="1060" windowWidth="27260" windowHeight="16940" xr2:uid="{681EA93E-AE60-7D46-B720-CAB4E15116B4}"/>
   </bookViews>
@@ -17,7 +17,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$F$2:$H$52</definedName>
-    <definedName name="elections_1" localSheetId="0">Data!$A$4:$T$51</definedName>
+    <definedName name="elections_1" localSheetId="0">Data!$A$4:$U$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$A$1:$P$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,6 +44,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A3FE6BB5-3E1D-4340-A6EA-A12E916D3BC1}</author>
+    <author>tc={AC605F0C-136F-1149-9492-5769D67395D6}</author>
     <author>tc={A4415544-F06B-6D44-B528-BEF3D238A6C8}</author>
   </authors>
   <commentList>
@@ -54,12 +56,20 @@
     The difference between the map’s projection and the actual # of D’s. Positive means more D’s; negative means fewer.</t>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{A4415544-F06B-6D44-B528-BEF3D238A6C8}">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{AC605F0C-136F-1149-9492-5769D67395D6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    The difference between the new 2022 map projection and the old 2020 projection. Positive means more D’s; negative means fewer.</t>
+    The difference between the new 2022 map fractional projection and the old 2020 fractional projection. Positive means more D’s; negative means fewer.</t>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="2" shapeId="0" xr:uid="{A4415544-F06B-6D44-B528-BEF3D238A6C8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The difference between the new 2022 map FPTP projection and the old 2020 FPTP projection. Positive means more D’s; negative means fewer.</t>
       </text>
     </comment>
   </commentList>
@@ -96,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
   <si>
     <t>AL</t>
   </si>
@@ -440,9 +450,6 @@
     <t>117th</t>
   </si>
   <si>
-    <t>Dem %</t>
-  </si>
-  <si>
     <t>2020 Maps</t>
   </si>
   <si>
@@ -453,15 +460,26 @@
   </si>
   <si>
     <t>Sf</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>fΔ</t>
+  </si>
+  <si>
+    <t>#Δ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="\+0;\-0;;@"/>
+    <numFmt numFmtId="167" formatCode="\+0.00;\-0.00;;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -497,15 +515,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7276"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -586,70 +616,355 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEB6C6B"/>
+      <color rgb="FFFF7276"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -971,3003 +1286,3219 @@
   <threadedComment ref="L2" dT="2022-06-12T14:42:46.41" personId="{20B57373-F196-0A41-AC19-28DE8A0054DD}" id="{A3FE6BB5-3E1D-4340-A6EA-A12E916D3BC1}">
     <text>The difference between the map’s projection and the actual # of D’s. Positive means more D’s; negative means fewer.</text>
   </threadedComment>
-  <threadedComment ref="O2" dT="2022-06-12T14:43:35.54" personId="{20B57373-F196-0A41-AC19-28DE8A0054DD}" id="{A4415544-F06B-6D44-B528-BEF3D238A6C8}">
-    <text>The difference between the new 2022 map projection and the old 2020 projection. Positive means more D’s; negative means fewer.</text>
+  <threadedComment ref="O2" dT="2022-06-12T21:04:04.42" personId="{20B57373-F196-0A41-AC19-28DE8A0054DD}" id="{AC605F0C-136F-1149-9492-5769D67395D6}">
+    <text>The difference between the new 2022 map fractional projection and the old 2020 fractional projection. Positive means more D’s; negative means fewer.</text>
+  </threadedComment>
+  <threadedComment ref="P2" dT="2022-06-12T14:43:35.54" personId="{20B57373-F196-0A41-AC19-28DE8A0054DD}" id="{A4415544-F06B-6D44-B528-BEF3D238A6C8}">
+    <text>The difference between the new 2022 map FPTP projection and the old 2020 FPTP projection. Positive means more D’s; negative means fewer.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9549FD63-5553-FE4A-95C6-DE5AEB491F85}">
-  <dimension ref="A1:Q55"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P51" sqref="P51"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.83203125" style="31" customWidth="1"/>
-    <col min="11" max="12" width="5.83203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" style="5" customWidth="1"/>
-    <col min="14" max="15" width="5.83203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="46.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="5.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" style="5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" style="4" customWidth="1"/>
+    <col min="14" max="16" width="5.83203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="46.33203125" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="24" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="18" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="35"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="56">
+        <v>2010</v>
+      </c>
+      <c r="G2" s="57">
+        <v>2020</v>
+      </c>
+      <c r="H2" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" s="21"/>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="I2" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="20">
+        <f>G3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0.4002</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1.01</v>
+      </c>
+      <c r="K3" s="5">
+        <f>ROUND(J3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="20">
+        <f>K3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1.01</v>
+      </c>
+      <c r="N3" s="5">
+        <f>ROUND(M3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="37">
+        <f>M3-J3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="38">
+        <f t="shared" ref="P3:P34" si="0">N3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" ref="H4:H52" si="1">G4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:N52" si="2">ROUND(J4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
+        <f t="shared" ref="L4:L52" si="3">K4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="37">
+        <f t="shared" ref="O4:O52" si="4">M4-J4</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P4" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="J5" s="15">
+        <v>4.46</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="M5" s="19">
+        <v>3.58</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O5" s="39">
+        <f t="shared" si="4"/>
+        <v>-0.87999999999999989</v>
+      </c>
+      <c r="P5" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="37">
+        <f t="shared" si="4"/>
+        <v>-3.9999999999999994E-2</v>
+      </c>
+      <c r="P6" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="25">
-        <v>2010</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2020</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="H7" s="20">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="J7" s="15">
+        <v>44.03</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M7" s="19">
+        <v>43.66</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="O7" s="37">
+        <f t="shared" si="4"/>
+        <v>-0.37000000000000455</v>
+      </c>
+      <c r="P7" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+      <c r="F8" s="9">
         <v>7</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="J8" s="15">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>4.53</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="37">
+        <f t="shared" si="4"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="P8" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="H3" s="15">
-        <f>G3-F3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="36">
-        <v>0.4002</v>
-      </c>
-      <c r="J3" s="31">
-        <v>1.01</v>
-      </c>
-      <c r="K3" s="6">
-        <f>ROUND(J3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="15">
-        <f>K3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="27">
-        <v>1.01</v>
-      </c>
-      <c r="N3" s="6">
-        <f>ROUND(M3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="15">
-        <f t="shared" ref="O3:O34" si="0">N3-K3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="E9" s="12">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="J9" s="15">
+        <v>4.62</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L9" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="19">
+        <v>4.63</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="37">
+        <f t="shared" si="4"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="P9" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15">
-        <f t="shared" ref="H4:H52" si="1">G4-F4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="36">
-        <v>0.44169999999999998</v>
-      </c>
-      <c r="J4" s="31">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" ref="K4:N52" si="2">ROUND(J4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="15">
-        <f t="shared" ref="L4:L52" si="3">K4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N4" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>0.99</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="37">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="P10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R10" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="19">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
         <v>9</v>
       </c>
-      <c r="G5" s="2">
-        <v>9</v>
-      </c>
-      <c r="H5" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="36">
-        <v>0.48870000000000002</v>
-      </c>
-      <c r="J5" s="31">
-        <v>4.46</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L5" s="15">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="M5" s="27">
-        <v>3.58</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O5" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="J6" s="31">
-        <v>0.06</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="27">
-        <v>0.02</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="19">
-        <v>42</v>
-      </c>
-      <c r="F7" s="12">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2">
-        <v>52</v>
-      </c>
-      <c r="H7" s="15">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="I7" s="36">
-        <v>0.64239999999999997</v>
-      </c>
-      <c r="J7" s="31">
-        <v>44.03</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="L7" s="15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M7" s="27">
-        <v>43.66</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="O7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>6</v>
-      </c>
-      <c r="E8" s="19">
-        <v>4</v>
-      </c>
-      <c r="F8" s="12">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>8</v>
-      </c>
-      <c r="H8" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0.54479999999999995</v>
-      </c>
-      <c r="J8" s="31">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="L8" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="27">
-        <v>4.53</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O8" s="15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="19">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
-        <v>0.58079999999999998</v>
-      </c>
-      <c r="J9" s="31">
-        <v>4.62</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L9" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="27">
-        <v>4.63</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="36">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="J10" s="31">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="27">
-        <v>0.99</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="E11" s="12">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>28</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="J11" s="15">
+        <v>12.25</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="D11" s="2">
-        <v>9</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="L11" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="19">
+        <v>10.53</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F11" s="12">
-        <v>27</v>
-      </c>
-      <c r="G11" s="2">
-        <v>28</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="36">
-        <v>0.48370000000000002</v>
-      </c>
-      <c r="J11" s="31">
-        <v>12.25</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M11" s="27">
-        <v>10.53</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="O11" s="15">
+      <c r="O11" s="39">
+        <f t="shared" si="4"/>
+        <v>-1.7200000000000006</v>
+      </c>
+      <c r="P11" s="38">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>13</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="12">
         <v>6</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <v>14</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>14</v>
       </c>
-      <c r="H12" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
+      <c r="H12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="21">
         <v>0.4803</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="15">
         <v>4.87</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="20">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="19">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="37">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="P12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>105</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>11</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="12">
         <v>2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <v>2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="36">
+      <c r="H13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
         <v>0.68269999999999997</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="15">
         <v>2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L13" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="27">
+      <c r="L13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
         <v>2</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>105</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>16</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
         <v>2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="H14" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="36">
+      <c r="H14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
         <v>0.3387</v>
       </c>
-      <c r="J14" s="31">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="27">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="15">
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>105</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>13</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="12">
         <v>13</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="9">
         <v>18</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>17</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="21">
         <v>0.58169999999999999</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="15">
         <v>11.99</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="20">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="19">
         <v>13.31</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="40">
+        <f t="shared" si="4"/>
+        <v>1.3200000000000003</v>
+      </c>
+      <c r="P15" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>14</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="12">
         <v>2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="9">
         <v>9</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>9</v>
       </c>
-      <c r="H16" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
+      <c r="H16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="21">
         <v>0.43469999999999998</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="15">
         <v>2.19</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L16" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="27">
+      <c r="L16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="19">
         <v>2</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="37">
+        <f t="shared" si="4"/>
+        <v>-0.18999999999999995</v>
+      </c>
+      <c r="P16" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>19</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>15</v>
       </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
         <v>4</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>4</v>
       </c>
-      <c r="H17" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="36">
+      <c r="H17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
         <v>0.45150000000000001</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="15">
         <v>0.94</v>
       </c>
-      <c r="K17" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="27">
+      <c r="K17" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
         <v>0.94</v>
       </c>
-      <c r="N17" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="15">
+      <c r="N17" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>20</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>16</v>
       </c>
-      <c r="E18" s="19">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12">
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
         <v>4</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="H18" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
+      <c r="H18" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
         <v>0.41860000000000003</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="15">
         <v>0.83</v>
       </c>
-      <c r="K18" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="27">
+      <c r="K18" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
         <v>0.53</v>
       </c>
-      <c r="N18" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="15">
+      <c r="N18" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="37">
+        <f t="shared" si="4"/>
+        <v>-0.29999999999999993</v>
+      </c>
+      <c r="P18" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="R18" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>21</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>17</v>
       </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
         <v>6</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>6</v>
       </c>
-      <c r="H19" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="36">
+      <c r="H19" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="21">
         <v>0.41399999999999998</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="15">
         <v>1.4</v>
       </c>
-      <c r="K19" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="27">
+      <c r="K19" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
         <v>1.27</v>
       </c>
-      <c r="N19" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="15">
+      <c r="N19" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="37">
+        <f t="shared" si="4"/>
+        <v>-0.12999999999999989</v>
+      </c>
+      <c r="P19" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>105</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="R19" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>22</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>18</v>
       </c>
-      <c r="E20" s="19">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
         <v>6</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>6</v>
       </c>
-      <c r="H20" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="36">
+      <c r="H20" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
         <v>0.39079999999999998</v>
       </c>
-      <c r="J20" s="31">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="27">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="15">
+      <c r="J20" s="15">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>23</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>19</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="12">
         <v>2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="9">
         <v>2</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>2</v>
       </c>
-      <c r="H21" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="36">
+      <c r="H21" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
         <v>0.50629999999999997</v>
       </c>
-      <c r="J21" s="31">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L21" s="15">
+      <c r="J21" s="15">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="20">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="19">
         <v>1.02</v>
       </c>
-      <c r="N21" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="15">
+      <c r="N21" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="37">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="P21" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>105</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>24</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>20</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="12">
         <v>7</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>8</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>8</v>
       </c>
-      <c r="H22" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="36">
+      <c r="H22" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
         <v>0.62150000000000005</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="15">
         <v>6.96</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L22" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="27">
+      <c r="L22" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
         <v>6.32</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="39">
+        <f t="shared" si="4"/>
+        <v>-0.63999999999999968</v>
+      </c>
+      <c r="P22" s="38">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>25</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>21</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="12">
         <v>9</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="9">
         <v>9</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>9</v>
       </c>
-      <c r="H23" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="36">
+      <c r="H23" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="21">
         <v>0.6139</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="15">
         <v>8.67</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L23" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="27">
+      <c r="L23" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="19">
         <v>8.64</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="37">
+        <f t="shared" si="4"/>
+        <v>-2.9999999999999361E-2</v>
+      </c>
+      <c r="P23" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>26</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>22</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="12">
         <v>7</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="9">
         <v>14</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>13</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="21">
         <v>0.51870000000000005</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="15">
         <v>6.41</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="20">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="19">
         <v>6.77</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="37">
+        <f t="shared" si="4"/>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="P24" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>27</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>23</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="12">
         <v>4</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="9">
         <v>8</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>8</v>
       </c>
-      <c r="H25" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="36">
+      <c r="H25" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="21">
         <v>0.54479999999999995</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="15">
         <v>4.1399999999999997</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L25" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="27">
+      <c r="L25" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="19">
         <v>4.3</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="37">
+        <f t="shared" si="4"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="P25" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="4" t="s">
+      <c r="R25" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>28</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>24</v>
       </c>
-      <c r="E26" s="19">
-        <v>1</v>
-      </c>
-      <c r="F26" s="12">
+      <c r="E26" s="12">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
         <v>4</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>4</v>
       </c>
-      <c r="H26" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="36">
+      <c r="H26" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
         <v>0.43190000000000001</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="15">
         <v>1.01</v>
       </c>
-      <c r="K26" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L26" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="27">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O26" s="15">
+      <c r="K26" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="19">
+        <v>1</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O26" s="37">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="P26" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="R26" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>29</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>25</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="12">
         <v>2</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="9">
         <v>8</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>8</v>
       </c>
-      <c r="H27" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="36">
+      <c r="H27" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="21">
         <v>0.4279</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L27" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="27">
+      <c r="L27" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
         <v>2.1</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="37">
+        <f t="shared" si="4"/>
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="P27" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="R27" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>30</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>26</v>
       </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
         <v>2</v>
       </c>
-      <c r="H28" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I28" s="36">
+      <c r="H28" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="21">
         <v>0.43640000000000001</v>
       </c>
-      <c r="J28" s="31">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="27">
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="19">
         <v>0.31</v>
       </c>
-      <c r="N28" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="15">
+      <c r="N28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="37">
+        <f t="shared" si="4"/>
+        <v>0.31</v>
+      </c>
+      <c r="P28" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>105</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="R28" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>31</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>27</v>
       </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
         <v>3</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>3</v>
       </c>
-      <c r="H29" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="36">
+      <c r="H29" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="21">
         <v>0.37540000000000001</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="15">
         <v>0.34</v>
       </c>
-      <c r="K29" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="27">
+      <c r="K29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="19">
         <v>0.37</v>
       </c>
-      <c r="N29" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="15">
+      <c r="N29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="37">
+        <f t="shared" si="4"/>
+        <v>2.9999999999999971E-2</v>
+      </c>
+      <c r="P29" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="R29" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>32</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>28</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="12">
         <v>3</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="9">
         <v>4</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>4</v>
       </c>
-      <c r="H30" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="36">
+      <c r="H30" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="21">
         <v>0.51449999999999996</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="15">
         <v>2.36</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="20">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M30" s="27">
+      <c r="M30" s="19">
         <v>2.72</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N30" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="37">
+        <f t="shared" si="4"/>
+        <v>0.36000000000000032</v>
+      </c>
+      <c r="P30" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="R30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>33</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>29</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="12">
         <v>2</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="9">
         <v>2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>2</v>
       </c>
-      <c r="H31" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="36">
+      <c r="H31" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="21">
         <v>0.46510000000000001</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="15">
         <v>0.4</v>
       </c>
-      <c r="K31" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="15">
+      <c r="K31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="20">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="M31" s="27">
+      <c r="M31" s="19">
         <v>0.4</v>
       </c>
-      <c r="N31" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="15">
+      <c r="N31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>105</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>34</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>30</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="12">
         <v>10</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="9">
         <v>12</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>12</v>
       </c>
-      <c r="H32" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="36">
+      <c r="H32" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="21">
         <v>0.57440000000000002</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="15">
         <v>8.49</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="20">
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="M32" s="27">
+      <c r="M32" s="19">
         <v>9.2899999999999991</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N32" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="40">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="P32" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>105</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="R32" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>35</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>31</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="12">
         <v>2</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="9">
         <v>3</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>3</v>
       </c>
-      <c r="H33" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="36">
+      <c r="H33" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="21">
         <v>0.56089999999999995</v>
       </c>
-      <c r="J33" s="31">
+      <c r="J33" s="15">
         <v>2.12</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L33" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="27">
+      <c r="L33" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="19">
         <v>2.77</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N33" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="40">
+        <f t="shared" si="4"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="P33" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="R33" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>36</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>32</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="12">
         <v>19</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="9">
         <v>27</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>26</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="21">
         <v>0.64780000000000004</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="15">
         <v>21.92</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="20">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M34" s="27">
+      <c r="M34" s="19">
         <v>22.05</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="5">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="37">
+        <f t="shared" si="4"/>
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="P34" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="4" t="s">
+      <c r="R34" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>37</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>33</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="12">
         <v>5</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="9">
         <v>13</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>14</v>
       </c>
-      <c r="H35" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="36">
+      <c r="H35" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="21">
         <v>0.49430000000000002</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="15">
         <v>5.38</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L35" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="27">
+      <c r="L35" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
         <v>6.75</v>
       </c>
-      <c r="N35" s="6">
+      <c r="N35" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O35" s="15">
-        <f t="shared" ref="O35:O66" si="4">N35-K35</f>
+      <c r="O35" s="40">
+        <f t="shared" si="4"/>
+        <v>1.37</v>
+      </c>
+      <c r="P35" s="38">
+        <f t="shared" ref="P35:P52" si="5">N35-K35</f>
         <v>2</v>
       </c>
-      <c r="Q35" s="4" t="s">
+      <c r="R35" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>38</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>34</v>
       </c>
-      <c r="E36" s="19">
-        <v>0</v>
-      </c>
-      <c r="F36" s="12">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="36">
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="21">
         <v>0.3029</v>
       </c>
-      <c r="J36" s="31">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="27">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="19">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
         <v>105</v>
       </c>
-      <c r="Q36" s="4" t="s">
+      <c r="R36" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>39</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>35</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="12">
         <v>4</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="9">
         <v>16</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>15</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="21">
         <v>0.46379999999999999</v>
       </c>
-      <c r="J37" s="31">
+      <c r="J37" s="15">
         <v>4.51</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L37" s="15">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="M37" s="27">
+      <c r="L37" s="20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="19">
         <v>4.3099999999999996</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O37" s="15">
-        <f t="shared" si="4"/>
+      <c r="O37" s="37">
+        <f t="shared" si="4"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="P37" s="38">
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="Q37" s="4" t="s">
+      <c r="R37" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>40</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>36</v>
       </c>
-      <c r="E38" s="19">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
+      <c r="E38" s="12">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
         <v>5</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>5</v>
       </c>
-      <c r="H38" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="36">
+      <c r="H38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="21">
         <v>0.33629999999999999</v>
       </c>
-      <c r="J38" s="31">
+      <c r="J38" s="15">
         <v>0.12</v>
       </c>
-      <c r="K38" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="27">
+      <c r="K38" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="19">
         <v>0.01</v>
       </c>
-      <c r="N38" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="4" t="s">
+      <c r="N38" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="37">
+        <f t="shared" si="4"/>
+        <v>-0.11</v>
+      </c>
+      <c r="P38" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>41</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>37</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="12">
         <v>4</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="9">
         <v>5</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>6</v>
       </c>
-      <c r="H39" s="15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="36">
+      <c r="H39" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="21">
         <v>0.57499999999999996</v>
       </c>
-      <c r="J39" s="31">
+      <c r="J39" s="15">
         <v>3.54</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L39" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="27">
+      <c r="L39" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="19">
         <v>4.63</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O39" s="15">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q39" s="4" t="s">
+      <c r="O39" s="40">
+        <f t="shared" si="4"/>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="P39" s="38">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>42</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>38</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="12">
         <v>9</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="9">
         <v>18</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>17</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="21">
         <v>0.52510000000000001</v>
       </c>
-      <c r="J40" s="31">
+      <c r="J40" s="15">
         <v>9.35</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L40" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="27">
+      <c r="L40" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
         <v>9.2100000000000009</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O40" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="4" t="s">
+      <c r="O40" s="37">
+        <f t="shared" si="4"/>
+        <v>-0.13999999999999879</v>
+      </c>
+      <c r="P40" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>44</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>39</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="12">
         <v>2</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="9">
         <v>2</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>2</v>
       </c>
-      <c r="H41" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="36">
+      <c r="H41" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="21">
         <v>0.61890000000000001</v>
       </c>
-      <c r="J41" s="31">
+      <c r="J41" s="15">
         <v>1.98</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L41" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="27">
+      <c r="L41" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
         <v>1.98</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O41" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="O41" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" t="s">
         <v>105</v>
       </c>
-      <c r="Q41" s="4" t="s">
+      <c r="R41" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>45</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>40</v>
       </c>
-      <c r="E42" s="19">
-        <v>1</v>
-      </c>
-      <c r="F42" s="12">
+      <c r="E42" s="12">
+        <v>1</v>
+      </c>
+      <c r="F42" s="9">
         <v>7</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>7</v>
       </c>
-      <c r="H42" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="36">
+      <c r="H42" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="21">
         <v>0.43159999999999998</v>
       </c>
-      <c r="J42" s="31">
+      <c r="J42" s="15">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K42" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L42" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="27">
+      <c r="K42" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L42" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N42" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O42" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="4" t="s">
+      <c r="N42" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="37">
+        <f t="shared" si="4"/>
+        <v>-2.9999999999999805E-2</v>
+      </c>
+      <c r="P42" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>46</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>41</v>
       </c>
-      <c r="E43" s="19">
-        <v>0</v>
-      </c>
-      <c r="F43" s="12">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="36">
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="21">
         <v>0.37109999999999999</v>
       </c>
-      <c r="J43" s="31">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="27">
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="19">
+        <v>0</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
         <v>105</v>
       </c>
-      <c r="Q43" s="4" t="s">
+      <c r="R43" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>47</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>42</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="12">
         <v>2</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="9">
         <v>9</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>9</v>
       </c>
-      <c r="H44" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="36">
+      <c r="H44" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="21">
         <v>0.3871</v>
       </c>
-      <c r="J44" s="31">
+      <c r="J44" s="15">
         <v>2</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L44" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="27">
+      <c r="L44" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="19">
         <v>1.1100000000000001</v>
       </c>
-      <c r="N44" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O44" s="15">
-        <f t="shared" si="4"/>
+      <c r="N44" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="39">
+        <f t="shared" si="4"/>
+        <v>-0.8899999999999999</v>
+      </c>
+      <c r="P44" s="38">
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>105</v>
       </c>
-      <c r="Q44" s="4" t="s">
+      <c r="R44" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>48</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>43</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="12">
         <v>13</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="9">
         <v>36</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>38</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="21">
         <v>0.4622</v>
       </c>
-      <c r="J45" s="31">
+      <c r="J45" s="15">
         <v>14.63</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="20">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M45" s="27">
+      <c r="M45" s="19">
         <v>13.85</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="5">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O45" s="15">
-        <f t="shared" si="4"/>
+      <c r="O45" s="39">
+        <f t="shared" si="4"/>
+        <v>-0.78000000000000114</v>
+      </c>
+      <c r="P45" s="38">
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
-      <c r="Q45" s="4" t="s">
+      <c r="R45" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>49</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>44</v>
       </c>
-      <c r="E46" s="19">
-        <v>0</v>
-      </c>
-      <c r="F46" s="12">
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
         <v>4</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>4</v>
       </c>
-      <c r="H46" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="36">
+      <c r="H46" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="21">
         <v>0.32969999999999999</v>
       </c>
-      <c r="J46" s="31">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="27">
-        <v>0</v>
-      </c>
-      <c r="N46" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="J46" s="15">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="19">
+        <v>0</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" t="s">
         <v>105</v>
       </c>
-      <c r="Q46" s="4" t="s">
+      <c r="R46" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>50</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>45</v>
       </c>
-      <c r="E47" s="19">
-        <v>1</v>
-      </c>
-      <c r="F47" s="12">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="36">
+      <c r="E47" s="12">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="21">
         <v>0.61060000000000003</v>
       </c>
-      <c r="J47" s="31">
-        <v>1</v>
-      </c>
-      <c r="K47" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L47" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M47" s="27">
-        <v>1</v>
-      </c>
-      <c r="N47" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O47" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="J47" s="15">
+        <v>1</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L47" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="19">
+        <v>1</v>
+      </c>
+      <c r="N47" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O47" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
         <v>105</v>
       </c>
-      <c r="Q47" s="4" t="s">
+      <c r="R47" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>51</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>46</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="12">
         <v>7</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="9">
         <v>11</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>11</v>
       </c>
-      <c r="H48" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="36">
+      <c r="H48" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="21">
         <v>0.53669999999999995</v>
       </c>
-      <c r="J48" s="31">
+      <c r="J48" s="15">
         <v>6.1</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="20">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="19">
         <v>6.23</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O48" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="O48" s="37">
+        <f t="shared" si="4"/>
+        <v>0.13000000000000078</v>
+      </c>
+      <c r="P48" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" t="s">
         <v>105</v>
       </c>
-      <c r="Q48" s="4" t="s">
+      <c r="R48" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>53</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>47</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="12">
         <v>7</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="9">
         <v>10</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>10</v>
       </c>
-      <c r="H49" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="36">
+      <c r="H49" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="21">
         <v>0.58169999999999999</v>
       </c>
-      <c r="J49" s="31">
+      <c r="J49" s="15">
         <v>6.82</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L49" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="27">
+      <c r="L49" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="19">
         <v>6.81</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O49" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="4" t="s">
+      <c r="O49" s="37">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000675E-2</v>
+      </c>
+      <c r="P49" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>54</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>48</v>
       </c>
-      <c r="E50" s="19">
-        <v>0</v>
-      </c>
-      <c r="F50" s="12">
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
         <v>3</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>2</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="20">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="21">
         <v>0.31900000000000001</v>
       </c>
-      <c r="J50" s="31">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="27">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="J50" s="15">
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="19">
+        <v>0</v>
+      </c>
+      <c r="N50" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" t="s">
         <v>105</v>
       </c>
-      <c r="Q50" s="4" t="s">
+      <c r="R50" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>55</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>49</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="12">
         <v>3</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="9">
         <v>8</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>8</v>
       </c>
-      <c r="H51" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="36">
+      <c r="H51" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="21">
         <v>0.50680000000000003</v>
       </c>
-      <c r="J51" s="31">
+      <c r="J51" s="15">
         <v>2.71</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L51" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="27">
+      <c r="L51" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="19">
         <v>3.04</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O51" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="4" t="s">
+      <c r="O51" s="37">
+        <f t="shared" si="4"/>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="P51" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>56</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>50</v>
       </c>
-      <c r="E52" s="19">
-        <v>0</v>
-      </c>
-      <c r="F52" s="12">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2">
-        <v>1</v>
-      </c>
-      <c r="H52" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="36">
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="21">
         <v>0.27539999999999998</v>
       </c>
-      <c r="J52" s="31">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="27">
-        <v>0</v>
-      </c>
-      <c r="N52" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="J52" s="15">
+        <v>0</v>
+      </c>
+      <c r="K52" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="19">
+        <v>0</v>
+      </c>
+      <c r="N52" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
         <v>105</v>
       </c>
-      <c r="Q52" s="4" t="s">
+      <c r="R52" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E53" s="19"/>
-      <c r="F53" s="12"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="36"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="27"/>
-      <c r="O53" s="22"/>
-    </row>
-    <row r="54" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
+    <row r="53" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="23">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="13">
         <f>SUM(E3:E52)</f>
         <v>222</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F53" s="10">
         <f>SUM(F3:F52)</f>
         <v>435</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G53" s="8">
         <f>SUM(G3:G52)</f>
         <v>435</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H53" s="11">
         <f>SUM(H3:H52)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="37"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="10">
+      <c r="I53" s="22"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="8">
         <f>SUM(K3:K52)</f>
         <v>220</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L53" s="11">
         <f>SUM(L3:L52)</f>
         <v>-2</v>
       </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="10">
+      <c r="M53" s="14"/>
+      <c r="N53" s="8">
         <f>SUM(N3:N52)</f>
         <v>224</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O53" s="18">
         <f>SUM(O3:O52)</f>
+        <v>0.90999999999999504</v>
+      </c>
+      <c r="P53" s="42">
+        <f>SUM(P3:P52)</f>
         <v>4</v>
       </c>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E55" s="20">
-        <f>E54-218</f>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+    </row>
+    <row r="54" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45">
+        <f>E53-218</f>
         <v>4</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="I55" s="36"/>
-      <c r="K55" s="6">
-        <f>K54-218</f>
+      <c r="F54" s="46"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="49">
+        <f>K53-218</f>
         <v>2</v>
       </c>
-      <c r="L55" s="22"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="6">
-        <f>N54-218</f>
+      <c r="L54" s="50"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="49">
+        <f>N53-218</f>
         <v>6</v>
       </c>
-      <c r="O55" s="22"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="52"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:U52">
     <sortCondition ref="D3:D52"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="F54:G54" formulaRange="1"/>
+    <ignoredError sqref="F53:G53" formulaRange="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
